--- a/checklistGenerator/xlsx/Antifoc1.xlsx
+++ b/checklistGenerator/xlsx/Antifoc1.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -242,7 +242,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -406,9 +406,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2417040</xdr:colOff>
+      <xdr:colOff>2416680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -421,12 +421,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5670000" y="0"/>
-          <a:ext cx="2853360" cy="1252440"/>
+          <a:off x="5664960" y="0"/>
+          <a:ext cx="2852280" cy="1252080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
@@ -437,25 +438,131 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6875" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="41.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="37.56"/>
   </cols>
